--- a/output_additional_column/1964.xlsx
+++ b/output_additional_column/1964.xlsx
@@ -490,7 +490,7 @@
         <v>79143</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>49096</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>41551</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>45759</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>31686</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>45989</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>18701</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>64100</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>75236</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>81246</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +730,7 @@
         <v>60597</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="13">
@@ -754,7 +754,7 @@
         <v>78825</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         <v>58308</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +802,7 @@
         <v>48920</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="16">
@@ -826,7 +826,7 @@
         <v>61839</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>85620</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="18">
@@ -874,7 +874,7 @@
         <v>45906</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="19">
@@ -898,7 +898,7 @@
         <v>59304</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="20">
@@ -922,7 +922,7 @@
         <v>82224</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="21">
@@ -946,7 +946,7 @@
         <v>58512</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="22">
@@ -970,7 +970,7 @@
         <v>68316</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="23">
@@ -994,7 +994,7 @@
         <v>65526</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="24">
@@ -1018,7 +1018,7 @@
         <v>68142</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="25">
@@ -1042,7 +1042,7 @@
         <v>40800</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="26">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="27">
@@ -1088,7 +1088,7 @@
         <v>42523</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="28">
@@ -1112,7 +1112,7 @@
         <v>51983</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="29">
@@ -1136,7 +1136,7 @@
         <v>63972</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="30">
@@ -1160,7 +1160,7 @@
         <v>65526</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="31">
@@ -1184,7 +1184,7 @@
         <v>64140</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="32">
@@ -1208,7 +1208,7 @@
         <v>46910</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1232,7 @@
         <v>55761</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="34">
@@ -1256,7 +1256,7 @@
         <v>62905</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="35">
@@ -1280,7 +1280,7 @@
         <v>63404</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="36">
@@ -1304,7 +1304,7 @@
         <v>18701</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="37">
@@ -1328,7 +1328,7 @@
         <v>69932</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="38">
@@ -1352,7 +1352,7 @@
         <v>45759</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="39">
@@ -1376,7 +1376,7 @@
         <v>61798</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="40">
@@ -1400,7 +1400,7 @@
         <v>41638</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="41">
@@ -1424,7 +1424,7 @@
         <v>41713</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="42">
@@ -1448,7 +1448,7 @@
         <v>60896</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
     <row r="43">
@@ -1472,7 +1472,7 @@
         <v>42523</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44703.76711011078</v>
+        <v>44703.79032936976</v>
       </c>
     </row>
   </sheetData>
